--- a/biology/Biochimie/Test_de_Bial/Test_de_Bial.xlsx
+++ b/biology/Biochimie/Test_de_Bial/Test_de_Bial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le test de Bial est un test chimique de détection des pentoses. 
 </t>
@@ -511,7 +523,9 @@
           <t>Méthode</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il consiste à ajouter à l'échantillon un peu de « réactif de Bial » constitué d'orcinol, d'acide chlorhydrique et de chlorure ferrique. En milieu acide les pentoses se déshydratent pour former du furfural. Le furfural se condense avec l'orcinol en développant une coloration bleu. Un précipité peut se former si la concentration est suffisante.
  Portail de la biochimie   Portail de la chimie                    </t>
